--- a/Final Attendee List_v2.0.xlsx
+++ b/Final Attendee List_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="3510"/>
   </bookViews>
   <sheets>
     <sheet name="Final List" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="307">
   <si>
     <t>Associate_ID</t>
   </si>
@@ -934,6 +934,18 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Saha, Manoj Kumar</t>
+  </si>
+  <si>
+    <t>Banerjee, Rituparna</t>
+  </si>
+  <si>
+    <t>Dutta, Soumita</t>
+  </si>
+  <si>
+    <t>JHI USI App Dev Flex Misc</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1096,6 +1108,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1405,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView topLeftCell="F149" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I182"/>
+    <sheetView tabSelected="1" topLeftCell="H143" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I182" sqref="I182:I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5903,11 +5919,11 @@
         <v>14</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" ref="I132:I182" si="4">"INSERT INTO invitationlist (ID,NAME,GRADE,CLIENT,PROJECT,MANAGER,OFFICE,DEPARTMENT) VALUES('"&amp;A132&amp;"','"&amp;B132&amp;"','"&amp;C132&amp;"','"&amp;TRIM(D132)&amp;"','"&amp;E132&amp;"','"&amp;F132&amp;"','"&amp;G132&amp;"','"&amp;H132&amp;"');"</f>
+        <f t="shared" ref="I132:I185" si="4">"INSERT INTO invitationlist (ID,NAME,GRADE,CLIENT,PROJECT,MANAGER,OFFICE,DEPARTMENT) VALUES('"&amp;A132&amp;"','"&amp;B132&amp;"','"&amp;C132&amp;"','"&amp;TRIM(D132)&amp;"','"&amp;E132&amp;"','"&amp;F132&amp;"','"&amp;G132&amp;"','"&amp;H132&amp;"');"</f>
         <v>INSERT INTO invitationlist (ID,NAME,GRADE,CLIENT,PROJECT,MANAGER,OFFICE,DEPARTMENT) VALUES('586208','Pal,Subham','PA','ROINS Financial Services Limited','RSA Staff Aug','Bagchi,Debarghya','Unitech (ITP) SEZ','PV');</v>
       </c>
       <c r="J132" s="14" t="str">
-        <f t="shared" ref="J132:J182" si="5">"https://ctsevent.cfapps.io/userInfo?id="&amp;A132&amp;"&amp;name="&amp;B132</f>
+        <f t="shared" ref="J132:J185" si="5">"https://ctsevent.cfapps.io/userInfo?id="&amp;A132&amp;"&amp;name="&amp;B132</f>
         <v>https://ctsevent.cfapps.io/userInfo?id=586208&amp;name=Pal,Subham</v>
       </c>
     </row>
@@ -7609,6 +7625,108 @@
       <c r="J182" s="14" t="str">
         <f t="shared" si="5"/>
         <v>https://ctsevent.cfapps.io/userInfo?id=660392&amp;name=Roy, Sourav</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="21">
+        <v>301425</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="F183" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO invitationlist (ID,NAME,GRADE,CLIENT,PROJECT,MANAGER,OFFICE,DEPARTMENT) VALUES('301425','Saha, Manoj Kumar','SM','John Hancock Life Insurance Company- USA','JHI USI App Dev Flex Misc','Bar,Arnab','Bantala Ph 1 (GTP) SDB 1 SEZ','PV');</v>
+      </c>
+      <c r="J183" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ctsevent.cfapps.io/userInfo?id=301425&amp;name=Saha, Manoj Kumar</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="21">
+        <v>664451</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="F184" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G184" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO invitationlist (ID,NAME,GRADE,CLIENT,PROJECT,MANAGER,OFFICE,DEPARTMENT) VALUES('664451','Banerjee, Rituparna','A','John Hancock Life Insurance Company- USA','JHI USI App Dev Flex Misc','Adhikary,Sudipta','Bantala Ph 1 (GTP) SDB 1 SEZ','PV');</v>
+      </c>
+      <c r="J184" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ctsevent.cfapps.io/userInfo?id=664451&amp;name=Banerjee, Rituparna</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="21">
+        <v>428003</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="F185" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G185" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO invitationlist (ID,NAME,GRADE,CLIENT,PROJECT,MANAGER,OFFICE,DEPARTMENT) VALUES('428003','Dutta, Soumita','A','John Hancock Life Insurance Company- USA','JHI USI App Dev Flex Misc','Adhikary,Sudipta','Bantala Ph 1 (GTP) SDB 1 SEZ','PV');</v>
+      </c>
+      <c r="J185" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ctsevent.cfapps.io/userInfo?id=428003&amp;name=Dutta, Soumita</v>
       </c>
     </row>
   </sheetData>
@@ -7625,7 +7743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
